--- a/data/required/tests.xlsx
+++ b/data/required/tests.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="29">
   <si>
     <t>test</t>
   </si>
@@ -35,24 +35,9 @@
     <t>Total Phosphorus</t>
   </si>
   <si>
-    <t>ObservedProperty</t>
-  </si>
-  <si>
-    <t>Fraction</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
-    <t>LOWER</t>
-  </si>
-  <si>
-    <t>Unit</t>
-  </si>
-  <si>
-    <t>LimitType</t>
-  </si>
-  <si>
     <t>WP1W</t>
   </si>
   <si>
@@ -108,6 +93,24 @@
   </si>
   <si>
     <t>SO4Z</t>
+  </si>
+  <si>
+    <t>TNAK</t>
+  </si>
+  <si>
+    <t>observed_property</t>
+  </si>
+  <si>
+    <t>fraction</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>Total Nitrogen</t>
+  </si>
+  <si>
+    <t>mg N/L</t>
   </si>
 </sst>
 </file>
@@ -425,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -437,24 +440,21 @@
     <col min="3" max="3" width="11.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="D1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -462,166 +462,150 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B7" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="C7" t="s">
         <v>14</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>15</v>
       </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="B8" t="s">
         <v>16</v>
       </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>17</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>18</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B10" t="s">
         <v>19</v>
       </c>
-      <c r="D7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
         <v>23</v>
       </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="B12" t="s">
         <v>27</v>
       </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" t="s">
-        <v>6</v>
+      <c r="C12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/data/required/tests.xlsx
+++ b/data/required/tests.xlsx
@@ -1,34 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\GitHub\SmartChem_v3\data\required\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8560"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="parameters" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="32">
   <si>
     <t>test</t>
   </si>
   <si>
+    <t>observed_property</t>
+  </si>
+  <si>
+    <t>fraction</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
     <t>WP3D</t>
   </si>
   <si>
@@ -38,6 +42,9 @@
     <t>Total</t>
   </si>
   <si>
+    <t>mg/L</t>
+  </si>
+  <si>
     <t>WP1W</t>
   </si>
   <si>
@@ -80,45 +87,53 @@
     <t>WALK</t>
   </si>
   <si>
+    <t>Alkalinity</t>
+  </si>
+  <si>
     <t>SO4K</t>
   </si>
   <si>
     <t>Sulphate</t>
   </si>
   <si>
-    <t>Alkalinity</t>
-  </si>
-  <si>
-    <t>mg/L</t>
-  </si>
-  <si>
     <t>SO4Z</t>
   </si>
   <si>
     <t>TNAK</t>
   </si>
   <si>
-    <t>observed_property</t>
-  </si>
-  <si>
-    <t>fraction</t>
-  </si>
-  <si>
-    <t>unit</t>
-  </si>
-  <si>
     <t>Total Nitrogen</t>
   </si>
   <si>
     <t>mg N/L</t>
+  </si>
+  <si>
+    <t>mdl_sc_manual</t>
+  </si>
+  <si>
+    <t>mdl_lab</t>
+  </si>
+  <si>
+    <t>mdl_lab_date</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss\ \U\T\C"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -146,14 +161,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -176,39 +196,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -287,325 +307,439 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="28.6328125" customWidth="1"/>
-    <col min="3" max="3" width="11.7265625" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" customWidth="1"/>
+    <col min="5" max="5" width="23.28515625" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2">
+        <v>4.1440000000000001E-3</v>
+      </c>
+      <c r="G2" s="3">
+        <v>43531</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3">
+        <v>1.8E-3</v>
+      </c>
+      <c r="F3">
+        <v>5.1000000000000004E-3</v>
+      </c>
+      <c r="G3" s="3">
+        <v>44988</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F4">
+        <v>1.37E-2</v>
+      </c>
+      <c r="G4" s="3">
+        <v>43628</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F5">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="G5" s="3">
+        <v>43811</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <v>4.4000000000000003E-3</v>
+      </c>
+      <c r="F8">
+        <v>7.3000000000000001E-3</v>
+      </c>
+      <c r="G8" s="3">
+        <v>43811</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9">
+        <v>4.68</v>
+      </c>
+      <c r="F9">
+        <v>4.2233000000000001</v>
+      </c>
+      <c r="G9" s="3">
+        <v>43616</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
         <v>24</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10">
+        <v>0.5</v>
+      </c>
+      <c r="F10">
+        <v>1.0149999999999999</v>
+      </c>
+      <c r="G10" s="3">
+        <v>43787</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>25</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11">
+        <v>0.5</v>
+      </c>
+      <c r="F11">
+        <v>1.0149999999999999</v>
+      </c>
+      <c r="G11" s="3">
+        <v>43787</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D12" t="s">
         <v>28</v>
+      </c>
+      <c r="E12">
+        <v>1.4E-3</v>
+      </c>
+      <c r="F12">
+        <v>4.4699999999999997E-2</v>
+      </c>
+      <c r="G12" s="3">
+        <v>43549</v>
       </c>
     </row>
   </sheetData>
